--- a/data/trans_dic/P69$dolorMuscular-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorMuscular-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6004997106095072</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7590969831733467</v>
+        <v>0.7590969831733466</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6396416682685274</v>
@@ -685,7 +685,7 @@
         <v>0.6638209648221201</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7289004897926994</v>
+        <v>0.7289004897926995</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5516474291645086</v>
@@ -697,7 +697,7 @@
         <v>0.6278947815210801</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7440189674959556</v>
+        <v>0.7440189674959555</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3933065096958381</v>
+        <v>0.3917909090992794</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.510713816355523</v>
+        <v>0.5187029524205441</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4826781595375968</v>
+        <v>0.4949574046511219</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6244512746465104</v>
+        <v>0.6137964507472218</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4736822391832142</v>
+        <v>0.4825604954885161</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5358432202357925</v>
+        <v>0.5374516509775422</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5395620289581922</v>
+        <v>0.5272751151112363</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6119902321578493</v>
+        <v>0.6214271256341984</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4623152870819427</v>
+        <v>0.4559070948604284</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5571142628639862</v>
+        <v>0.5599728932267249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5419277676696997</v>
+        <v>0.5345022183732815</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6523450717024585</v>
+        <v>0.6606533808733109</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6261606776235124</v>
+        <v>0.6237341838124404</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7300407580013311</v>
+        <v>0.7488874536933569</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7122431776413776</v>
+        <v>0.7197993556178315</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8692997236503602</v>
+        <v>0.8607871569726872</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7665339267371293</v>
+        <v>0.7769860834002059</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7725885223521809</v>
+        <v>0.7688528611604193</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7679404812355578</v>
+        <v>0.7742003688277014</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8267418834770424</v>
+        <v>0.8259278450863058</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6363107283338941</v>
+        <v>0.6367144602377556</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7153516760560723</v>
+        <v>0.7243914447513735</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7031676645258215</v>
+        <v>0.7057143352882257</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8095900911387116</v>
+        <v>0.8132578619267532</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.6059637175057033</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6461425184649362</v>
+        <v>0.6461425184649361</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4715669062236303</v>
@@ -821,7 +821,7 @@
         <v>0.6289817960245228</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6235465520856057</v>
+        <v>0.6235465520856056</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5102251094215878</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4493257286609467</v>
+        <v>0.4426650570773973</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3906121382480117</v>
+        <v>0.383948465587963</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5072657578425639</v>
+        <v>0.5135546224585948</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5482017114351344</v>
+        <v>0.5492335227236712</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3472018091586528</v>
+        <v>0.3565053927183102</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4558161806397985</v>
+        <v>0.4603051637615238</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4934950105039324</v>
+        <v>0.4904713368811142</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5311105085012846</v>
+        <v>0.5344728801722423</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4441961103377865</v>
+        <v>0.4457402991963925</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.453242100470058</v>
+        <v>0.4505096001837512</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5343971715445537</v>
+        <v>0.5317398049506811</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5733634268154276</v>
+        <v>0.5725417589720082</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6052311068760599</v>
+        <v>0.6007253968995875</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5997135118269593</v>
+        <v>0.5939304771964212</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6959895213930136</v>
+        <v>0.6985303475890695</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7363149203356969</v>
+        <v>0.725574977104505</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5925101898638995</v>
+        <v>0.6058668480574463</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7213243060919057</v>
+        <v>0.7256263752127643</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7413097764437899</v>
+        <v>0.7540945803415909</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7031617044887474</v>
+        <v>0.7128170418605062</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5812551442267015</v>
+        <v>0.5719951703935912</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6130023686085133</v>
+        <v>0.6175438199906971</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6894446310332677</v>
+        <v>0.6863365622389703</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7004830578334509</v>
+        <v>0.6943249998113173</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.5802835409254331</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6468254034766091</v>
+        <v>0.6468254034766093</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.4983839229572222</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4361113112159636</v>
+        <v>0.4292790364163031</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4813904460922417</v>
+        <v>0.4862688221877385</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.472358248319876</v>
+        <v>0.4798496604730688</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5393253512435801</v>
+        <v>0.5348818751834783</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3923658936177157</v>
+        <v>0.3863434281153849</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09677020043557918</v>
+        <v>0.1072849462957992</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4855941774374103</v>
+        <v>0.4898306822571677</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4954156210474594</v>
+        <v>0.4867598290060241</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4399034823388509</v>
+        <v>0.4393669602162251</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3878861459877843</v>
+        <v>0.3959109612750491</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5150256198885574</v>
+        <v>0.5111519088568949</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5410140638888508</v>
+        <v>0.5353305120710645</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.592544780989756</v>
+        <v>0.6043151500944851</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6806084111955046</v>
+        <v>0.6789846071067233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6883636939317107</v>
+        <v>0.6905466023174613</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7365430569520541</v>
+        <v>0.7505789639934128</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6036206888301976</v>
+        <v>0.6062283645150333</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3518985363101452</v>
+        <v>0.3379457510495436</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7608412435154566</v>
+        <v>0.7697005710960243</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6655432312605086</v>
+        <v>0.6578383513498488</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5766570645505579</v>
+        <v>0.5729936375480942</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.554204267810306</v>
+        <v>0.5657611488429705</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6777536302348331</v>
+        <v>0.6865915226343098</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6800081771337222</v>
+        <v>0.6758710191528408</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.7795286549652899</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.5488536411008119</v>
+        <v>0.548853641100812</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.5332499596996285</v>
@@ -1105,7 +1105,7 @@
         <v>0.6846819513759401</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5411320978918417</v>
+        <v>0.5411320978918416</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4322452768852083</v>
+        <v>0.4288061544034896</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3077444775050517</v>
+        <v>0.3238089685499442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.487370688122543</v>
+        <v>0.4762026231333583</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4172820198526554</v>
+        <v>0.4220702942202815</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3152435030906127</v>
+        <v>0.3062548582773361</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2852928804567193</v>
+        <v>0.291177589334653</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6302901761933236</v>
+        <v>0.6263021236801118</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4498888239617719</v>
+        <v>0.4509921989832303</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.433452073037389</v>
+        <v>0.4325391842702243</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3516237696031368</v>
+        <v>0.3541342724155235</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5825480043440059</v>
+        <v>0.5885155678995344</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4686566297338406</v>
+        <v>0.4706048846976311</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6675705263963132</v>
+        <v>0.6637359696282304</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5904940981857465</v>
+        <v>0.6079741471541741</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7437815330162189</v>
+        <v>0.7345983265853984</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6394650490714516</v>
+        <v>0.6540644924738147</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6462505277396609</v>
+        <v>0.6490500015611218</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6307166797598135</v>
+        <v>0.6280129339877815</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8837646853197771</v>
+        <v>0.8811569648756369</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6444720451236814</v>
+        <v>0.6421980857203342</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6326749484689352</v>
+        <v>0.6389838493537157</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.566101832159101</v>
+        <v>0.5668755486266424</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7690723557165157</v>
+        <v>0.7715883002192759</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.61704030816735</v>
+        <v>0.6154552352407731</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.6003885740657668</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6347603131688833</v>
+        <v>0.6347603131688832</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5175159643610313</v>
@@ -1241,7 +1241,7 @@
         <v>0.6278953813900958</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.6233124971382381</v>
+        <v>0.623312497138238</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4716793852738177</v>
+        <v>0.4766290170674969</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4836157178077435</v>
+        <v>0.4937978344175108</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5423144728649514</v>
+        <v>0.5448581273861866</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5805409110909212</v>
+        <v>0.5784457199122509</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4503939174513055</v>
+        <v>0.448343887092658</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4464890245182982</v>
+        <v>0.4385825581019741</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6081218770139846</v>
+        <v>0.6054033415427434</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5648657666810111</v>
+        <v>0.5667253797240277</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4771347410317658</v>
+        <v>0.4819339088249364</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4937935259786739</v>
+        <v>0.4945081548163146</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5856447671613045</v>
+        <v>0.5865414807166245</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5847666711281359</v>
+        <v>0.5883504606677085</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5700461878482095</v>
+        <v>0.5670018662808933</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6061499291716352</v>
+        <v>0.6046460738476124</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6529055534263758</v>
+        <v>0.6515571831274622</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6880380401970538</v>
+        <v>0.6866765162934891</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5819819474799803</v>
+        <v>0.5807251949632133</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5819572486520704</v>
+        <v>0.5878076016676664</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7354085112642531</v>
+        <v>0.7399347560053867</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6539583303724943</v>
+        <v>0.6579737962893775</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5557714096120838</v>
+        <v>0.5589325105985754</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5771643319847443</v>
+        <v>0.5752997147360657</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6703763840645485</v>
+        <v>0.6686475318443537</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.655110347109183</v>
+        <v>0.6602169325472689</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>33189</v>
+        <v>33061</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>42603</v>
+        <v>43269</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>40058</v>
+        <v>41078</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36357</v>
+        <v>35736</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21537</v>
+        <v>21941</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>37079</v>
+        <v>37190</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>34146</v>
+        <v>33369</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>35536</v>
+        <v>36084</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>60033</v>
+        <v>59200</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>85024</v>
+        <v>85460</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>79271</v>
+        <v>78185</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>75860</v>
+        <v>76826</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>52839</v>
+        <v>52634</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>60899</v>
+        <v>62471</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>59110</v>
+        <v>59738</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>50612</v>
+        <v>50117</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>34852</v>
+        <v>35327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>53461</v>
+        <v>53202</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>48599</v>
+        <v>48995</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>48006</v>
+        <v>47958</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>82626</v>
+        <v>82679</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>109173</v>
+        <v>110553</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>102857</v>
+        <v>103229</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>94146</v>
+        <v>94572</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>77499</v>
+        <v>76350</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>34359</v>
+        <v>33772</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>55761</v>
+        <v>56452</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>69678</v>
+        <v>69809</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>22738</v>
+        <v>23347</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>28327</v>
+        <v>28606</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>29680</v>
+        <v>29498</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>55589</v>
+        <v>55941</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>105704</v>
+        <v>106071</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>68034</v>
+        <v>67624</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>90883</v>
+        <v>90431</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>132887</v>
+        <v>132697</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>104389</v>
+        <v>103612</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>52751</v>
+        <v>52243</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>76507</v>
+        <v>76786</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>93587</v>
+        <v>92222</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>38803</v>
+        <v>39678</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44827</v>
+        <v>45094</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>44584</v>
+        <v>45353</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>73597</v>
+        <v>74608</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>138320</v>
+        <v>136116</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>92015</v>
+        <v>92696</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>117252</v>
+        <v>116723</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>162350</v>
+        <v>160922</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>64058</v>
+        <v>63055</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>51532</v>
+        <v>52055</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>41621</v>
+        <v>42281</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>52120</v>
+        <v>51691</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>30519</v>
+        <v>30051</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4133</v>
+        <v>4582</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>22437</v>
+        <v>22633</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>46784</v>
+        <v>45966</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>98832</v>
+        <v>98712</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>58087</v>
+        <v>59289</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>69178</v>
+        <v>68657</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>103373</v>
+        <v>102287</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>87036</v>
+        <v>88765</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>72858</v>
+        <v>72685</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>60654</v>
+        <v>60847</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>71180</v>
+        <v>72536</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>46951</v>
+        <v>47154</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15028</v>
+        <v>14432</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35155</v>
+        <v>35565</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>62849</v>
+        <v>62122</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>129556</v>
+        <v>128733</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>82994</v>
+        <v>84724</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>91035</v>
+        <v>92222</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>129931</v>
+        <v>129141</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>29279</v>
+        <v>29046</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14473</v>
+        <v>15228</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32237</v>
+        <v>31498</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>41091</v>
+        <v>41562</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9893</v>
+        <v>9611</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11011</v>
+        <v>11238</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>29413</v>
+        <v>29227</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>36826</v>
+        <v>36916</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>42963</v>
+        <v>42872</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>30107</v>
+        <v>30322</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>65717</v>
+        <v>66390</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>84511</v>
+        <v>84863</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>45219</v>
+        <v>44959</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27770</v>
+        <v>28592</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>49197</v>
+        <v>48589</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>62969</v>
+        <v>64407</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>20281</v>
+        <v>20368</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>24343</v>
+        <v>24238</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>41242</v>
+        <v>41120</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>52753</v>
+        <v>52567</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>62709</v>
+        <v>63335</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>48471</v>
+        <v>48537</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>86759</v>
+        <v>87043</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>111269</v>
+        <v>110983</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>222389</v>
+        <v>224723</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>157395</v>
+        <v>160709</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>188278</v>
+        <v>189161</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>220858</v>
+        <v>220061</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>99141</v>
+        <v>98690</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>94942</v>
+        <v>93261</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>131536</v>
+        <v>130948</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>191501</v>
+        <v>192131</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>329989</v>
+        <v>333308</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>265708</v>
+        <v>266093</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>329995</v>
+        <v>330500</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>420713</v>
+        <v>423292</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>268768</v>
+        <v>267332</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>197275</v>
+        <v>196785</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>226672</v>
+        <v>226204</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>261754</v>
+        <v>261236</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>128106</v>
+        <v>127830</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>123748</v>
+        <v>124992</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>159067</v>
+        <v>160046</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>221705</v>
+        <v>223066</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>384374</v>
+        <v>386561</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>310570</v>
+        <v>309566</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>377739</v>
+        <v>376765</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>471322</v>
+        <v>474996</v>
       </c>
     </row>
     <row r="24">
